--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_09_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_09_end.xlsx
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]   Today is Sauin, Mr. Emperor, but your dreadful "music" is loud enough to wake the dead.
+    <t xml:space="preserve">[name="Rat King"]   Today is Sauin, Mr. Emperor, but your dreadful 'music' is loud enough to wake the dead.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_09_end.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_09_end.xlsx
@@ -924,7 +924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">00:38 AM \ Dusty
+    <t xml:space="preserve">00:38 A.M. \ Dusty
 </t>
   </si>
   <si>
